--- a/PastaDocumentos/Orcamento.xlsx
+++ b/PastaDocumentos/Orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\ExercicioGit\3SIPF-ExemploGIT-2024\PastaDocumentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88F39094-55A4-449F-A6E7-61C117FA9F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2128C11E-258B-4A24-ABCA-AD33ABF6129C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{3CCC4FFF-19C2-4315-83AE-2C6D0D292068}"/>
   </bookViews>
@@ -60,7 +60,7 @@
     <t>Alimentação</t>
   </si>
   <si>
-    <t>R$12.000</t>
+    <t>R$15.000</t>
   </si>
 </sst>
 </file>
